--- a/__nodeScripts/compareBiblio.xlsx
+++ b/__nodeScripts/compareBiblio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="590" windowWidth="13700" windowHeight="11030" activeTab="1"/>
+    <workbookView xWindow="1040" yWindow="590" windowWidth="13700" windowHeight="11030"/>
   </bookViews>
   <sheets>
     <sheet name="compareBiblio" sheetId="1" r:id="rId1"/>
@@ -1396,7 +1396,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1594,6 +1594,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1764,7 +1770,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1786,6 +1792,11 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2132,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2486,13 +2497,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="15" t="s">
         <v>283</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2500,13 +2511,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="15" t="s">
         <v>283</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3645,7 +3656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>

--- a/__nodeScripts/compareBiblio.xlsx
+++ b/__nodeScripts/compareBiblio.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="401">
   <si>
     <t>Amaro 2021a</t>
   </si>
@@ -854,9 +854,6 @@
     <t>Brahmavamso 1994</t>
   </si>
   <si>
-    <t>Dependent Origination  &amp; Some Remarks on Dependent Origination</t>
-  </si>
-  <si>
     <t>Brahmavamso 2006</t>
   </si>
   <si>
@@ -1209,6 +1206,18 @@
   </si>
   <si>
     <t>Patton</t>
+  </si>
+  <si>
+    <t>Brahm 1994a</t>
+  </si>
+  <si>
+    <t>Some Remarks on Dependent Origination</t>
+  </si>
+  <si>
+    <t>Dependent Origination</t>
+  </si>
+  <si>
+    <t>Langer 2001a</t>
   </si>
 </sst>
 </file>
@@ -2143,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2158,14 +2167,14 @@
   <sheetData>
     <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>386</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2213,7 +2222,7 @@
         <v>261</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2275,7 +2284,7 @@
         <v>261</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -2300,7 +2309,7 @@
         <v>261</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2382,13 +2391,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2498,16 +2507,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>51</v>
+        <v>397</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>278</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>279</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2515,13 +2524,13 @@
         <v>51</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>279</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -2529,7 +2538,7 @@
         <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>53</v>
@@ -2540,7 +2549,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>55</v>
@@ -2551,7 +2560,7 @@
         <v>56</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>57</v>
@@ -2562,7 +2571,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>59</v>
@@ -2573,7 +2582,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>61</v>
@@ -2584,7 +2593,7 @@
         <v>62</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>250</v>
@@ -2595,7 +2604,7 @@
         <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>64</v>
@@ -2606,7 +2615,7 @@
         <v>65</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>66</v>
@@ -2617,7 +2626,7 @@
         <v>67</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>68</v>
@@ -2625,13 +2634,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -2639,7 +2648,7 @@
         <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>70</v>
@@ -2650,7 +2659,7 @@
         <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>72</v>
@@ -2661,7 +2670,7 @@
         <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>74</v>
@@ -2672,7 +2681,7 @@
         <v>75</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>76</v>
@@ -2683,7 +2692,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>78</v>
@@ -2694,7 +2703,7 @@
         <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>80</v>
@@ -2705,7 +2714,7 @@
         <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>82</v>
@@ -2716,7 +2725,7 @@
         <v>83</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>84</v>
@@ -2727,7 +2736,7 @@
         <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>86</v>
@@ -2738,7 +2747,7 @@
         <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>88</v>
@@ -2760,7 +2769,7 @@
         <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>92</v>
@@ -2771,7 +2780,7 @@
         <v>93</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>94</v>
@@ -2782,7 +2791,7 @@
         <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>96</v>
@@ -2793,7 +2802,7 @@
         <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>98</v>
@@ -2804,7 +2813,7 @@
         <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>100</v>
@@ -2815,7 +2824,7 @@
         <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>102</v>
@@ -2826,7 +2835,7 @@
         <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>104</v>
@@ -2837,7 +2846,7 @@
         <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>251</v>
@@ -2848,7 +2857,7 @@
         <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>107</v>
@@ -2859,7 +2868,7 @@
         <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>109</v>
@@ -2870,7 +2879,7 @@
         <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>111</v>
@@ -2881,7 +2890,7 @@
         <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>113</v>
@@ -2892,7 +2901,7 @@
         <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>115</v>
@@ -2903,7 +2912,7 @@
         <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>117</v>
@@ -2914,7 +2923,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>119</v>
@@ -2925,7 +2934,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>121</v>
@@ -2936,10 +2945,10 @@
         <v>122</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2947,7 +2956,7 @@
         <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>124</v>
@@ -2958,7 +2967,7 @@
         <v>125</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>126</v>
@@ -2969,7 +2978,7 @@
         <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>128</v>
@@ -2980,7 +2989,7 @@
         <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>130</v>
@@ -2988,10 +2997,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>131</v>
+        <v>400</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>132</v>
@@ -3002,7 +3011,7 @@
         <v>133</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>134</v>
@@ -3013,7 +3022,7 @@
         <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>136</v>
@@ -3024,7 +3033,7 @@
         <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>138</v>
@@ -3035,7 +3044,7 @@
         <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>252</v>
@@ -3046,7 +3055,7 @@
         <v>140</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>141</v>
@@ -3057,7 +3066,7 @@
         <v>142</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>143</v>
@@ -3068,7 +3077,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>145</v>
@@ -3079,7 +3088,7 @@
         <v>146</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>147</v>
@@ -3090,7 +3099,7 @@
         <v>148</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>149</v>
@@ -3101,7 +3110,7 @@
         <v>150</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>151</v>
@@ -3112,7 +3121,7 @@
         <v>152</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>153</v>
@@ -3123,7 +3132,7 @@
         <v>154</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>155</v>
@@ -3134,7 +3143,7 @@
         <v>156</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>157</v>
@@ -3145,7 +3154,7 @@
         <v>158</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>159</v>
@@ -3156,7 +3165,7 @@
         <v>160</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>161</v>
@@ -3167,7 +3176,7 @@
         <v>162</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>163</v>
@@ -3178,7 +3187,7 @@
         <v>164</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>165</v>
@@ -3189,7 +3198,7 @@
         <v>166</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>167</v>
@@ -3200,7 +3209,7 @@
         <v>168</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>169</v>
@@ -3211,7 +3220,7 @@
         <v>170</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>171</v>
@@ -3222,7 +3231,7 @@
         <v>172</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>173</v>
@@ -3233,7 +3242,7 @@
         <v>174</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>175</v>
@@ -3244,7 +3253,7 @@
         <v>176</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>177</v>
@@ -3255,7 +3264,7 @@
         <v>178</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>179</v>
@@ -3266,7 +3275,7 @@
         <v>180</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>181</v>
@@ -3277,7 +3286,7 @@
         <v>182</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>183</v>
@@ -3288,7 +3297,7 @@
         <v>184</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>185</v>
@@ -3299,7 +3308,7 @@
         <v>186</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>187</v>
@@ -3310,7 +3319,7 @@
         <v>188</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>189</v>
@@ -3321,7 +3330,7 @@
         <v>190</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>191</v>
@@ -3332,7 +3341,7 @@
         <v>192</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>193</v>
@@ -3343,7 +3352,7 @@
         <v>194</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>195</v>
@@ -3354,7 +3363,7 @@
         <v>196</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>197</v>
@@ -3365,7 +3374,7 @@
         <v>198</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>199</v>
@@ -3376,7 +3385,7 @@
         <v>200</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>201</v>
@@ -3387,7 +3396,7 @@
         <v>202</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>203</v>
@@ -3398,7 +3407,7 @@
         <v>204</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>205</v>
@@ -3420,7 +3429,7 @@
         <v>208</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>209</v>
@@ -3431,7 +3440,7 @@
         <v>210</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>211</v>
@@ -3442,7 +3451,7 @@
         <v>212</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>213</v>
@@ -3453,7 +3462,7 @@
         <v>214</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>215</v>
@@ -3464,7 +3473,7 @@
         <v>216</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>217</v>
@@ -3497,7 +3506,7 @@
         <v>222</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>223</v>
@@ -3508,7 +3517,7 @@
         <v>224</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>225</v>
@@ -3519,7 +3528,7 @@
         <v>226</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>227</v>
@@ -3530,7 +3539,7 @@
         <v>228</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>229</v>
@@ -3541,7 +3550,7 @@
         <v>230</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>231</v>
@@ -3552,7 +3561,7 @@
         <v>232</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>233</v>
@@ -3563,7 +3572,7 @@
         <v>234</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>235</v>
@@ -3574,7 +3583,7 @@
         <v>236</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>237</v>
@@ -3585,7 +3594,7 @@
         <v>238</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>239</v>
@@ -3596,7 +3605,7 @@
         <v>240</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>241</v>
@@ -3607,7 +3616,7 @@
         <v>242</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>243</v>
@@ -3618,7 +3627,7 @@
         <v>244</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>245</v>
@@ -3629,7 +3638,7 @@
         <v>246</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>247</v>
@@ -3640,7 +3649,7 @@
         <v>248</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>249</v>
@@ -3675,4226 +3684,4226 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>253</v>
       </c>
       <c r="H1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>254</v>
       </c>
       <c r="H2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>255</v>
       </c>
       <c r="H3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>257</v>
       </c>
       <c r="H6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>258</v>
       </c>
       <c r="H7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>259</v>
       </c>
       <c r="H8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>262</v>
       </c>
       <c r="H10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>263</v>
       </c>
       <c r="H12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>264</v>
       </c>
       <c r="H13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>265</v>
       </c>
       <c r="H14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>266</v>
       </c>
       <c r="H15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>267</v>
       </c>
       <c r="H16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>268</v>
       </c>
       <c r="H17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>270</v>
       </c>
       <c r="H18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>273</v>
       </c>
       <c r="H23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>274</v>
       </c>
       <c r="H24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>275</v>
       </c>
       <c r="H25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>276</v>
       </c>
       <c r="H26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>277</v>
       </c>
       <c r="H27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>269</v>
       </c>
       <c r="H28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>278</v>
       </c>
       <c r="H29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B70" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D70" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F70" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H70" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B72" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D72" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F72" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H72" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B83" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D83" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F83" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H83" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B84" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D84" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F84" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H84" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B85" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D85" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F85" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H85" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B86" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D86" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F86" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H86" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B87" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D87" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F87" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H87" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B88" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D88" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F88" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H88" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B90" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D90" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F90" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H90" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B92" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F92" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H92" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B93" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D93" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F93" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H93" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B94" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D94" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F94" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H94" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B95" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D95" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F95" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H95" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B97" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D97" t="s">
+        <v>395</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F97" t="s">
+        <v>395</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F97" t="s">
-        <v>396</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="H97" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B99" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D99" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F99" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H99" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B100" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D100" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F100" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H100" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B101" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D101" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F101" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H101" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B102" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D102" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F102" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H102" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B103" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D103" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F103" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H103" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B106" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D106" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F106" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H106" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B107" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D107" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F107" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H107" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B108" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D108" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F108" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H108" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B109" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D109" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F109" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H109" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B110" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D110" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F110" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H110" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B111" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D111" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F111" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>206</v>
       </c>
       <c r="H111" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B112" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D112" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F112" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H112" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B113" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D113" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F113" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H113" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B114" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D114" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F114" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H114" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B115" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D115" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F115" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H115" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B117" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D117" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F117" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>218</v>
       </c>
       <c r="H117" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B118" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D118" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F118" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>220</v>
       </c>
       <c r="H118" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B119" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>222</v>
       </c>
       <c r="D119" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F119" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H119" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B120" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D120" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F120" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H120" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B121" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D121" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F121" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H121" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B122" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D122" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F122" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H122" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B123" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D123" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F123" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H123" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B124" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D124" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F124" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H124" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B125" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D125" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F125" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H125" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B126" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D126" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F126" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H126" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B127" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>238</v>
       </c>
       <c r="D127" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F127" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H127" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B128" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D128" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F128" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H128" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B129" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D129" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F129" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H129" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B130" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D130" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F130" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H130" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B131" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D131" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F131" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H131" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B132" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D132" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F132" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H132" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
